--- a/similarities/split_global/harmonic_similarity_timestamps_337.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_337.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:02:45.140000', '0:02:48.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:06.160000', '0:00:23.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=165.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'G:min/5']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'F:min']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:26.035941', '0:00:29.460884')]</t>
+          <t>('0:01:05.780000', '0:01:17.760000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:38.783000', '0:00:45.674000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=26.035941']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=38.783']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:21.840737', '0:00:25.474660')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:02:53.380000', '0:02:56.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=21.840737</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=173.38</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:25.040000', '0:00:42.400000'), ('0:00:01.440000', '0:00:06.660000'), ('0:00:49.400000', '0:00:56.760000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=25.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=49.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.776621', '0:00:32.769727')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=20.776621']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:01.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=41.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:7/3', 'A', 'A:min/b3', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.960000', '0:00:13.120000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:21.908049', '0:00:27.840748')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=2.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=21.908049']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:24.939000')]</t>
+          <t>('0:00:23.600000', '0:00:40.320000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.965212', '0:00:31.142537')]</t>
+          <t>('0:00:34.940000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['A', 'D', 'A', 'E:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:58.880000', '0:01:01.680000')]</t>
+          <t>('0:01:23.340000', '0:01:28.640000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000'), ('0:00:31.140000', '0:00:41.420000')]</t>
+          <t>('0:00:29.983333', '0:00:35.300702')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=31.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=29.983333</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb:7/#5', 'Ab', 'F:min7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:34.060000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.624000', '0:00:06.624000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=90.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['B', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:16.300702', '0:01:21.817743')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:32.669000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=76.300702</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=32.669</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
